--- a/model/data/Refugee/xlsx/Refugee.xlsx
+++ b/model/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvijfvinke001\Documents\RBS\tRBS open source\trbs\model\data\Refugee\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01243913-FA2B-4949-8EC8-F33EB5C19AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF65431-8D2D-0340-B61F-D5B24B29B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="38060" yWindow="4160" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="179">
   <si>
     <t>configuration</t>
   </si>
@@ -650,7 +650,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,12 +979,12 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1013,13 +1013,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1243,19 +1243,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1266,20 +1266,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3234502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1288,125 +1288,257 @@
         <v>3234502</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>3234502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>3234502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>3234502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>3234502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C6">
-        <v>3881402.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>2587601.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>1293800.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>1293800.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>1293800.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11">
-        <v>1293800.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
       <c r="C12">
-        <v>1293800.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2587601.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>3881402.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>1293800.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1293800.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>1293800.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>1293800.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>1293800.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
         <v>3881402.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
+      <c r="C25">
         <v>2587601.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1422,12 +1554,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1449,7 +1581,7 @@
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1460,7 +1592,7 @@
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1471,7 +1603,7 @@
         <v>5175203.3470000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1482,7 +1614,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1493,7 +1625,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1504,7 +1636,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -1515,7 +1647,7 @@
         <v>36972</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1526,7 +1658,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1537,7 +1669,7 @@
         <v>27084</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1548,7 +1680,7 @@
         <v>26796</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1559,7 +1691,7 @@
         <v>43512</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -1570,7 +1702,7 @@
         <v>25332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1581,7 +1713,7 @@
         <v>34872</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1592,7 +1724,7 @@
         <v>30492</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -1603,7 +1735,7 @@
         <v>50052</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1614,7 +1746,7 @@
         <v>34332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1625,7 +1757,7 @@
         <v>40776</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1649,12 +1781,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1670,7 +1802,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1678,7 +1810,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1686,7 +1818,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1694,7 +1826,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1702,7 +1834,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1710,7 +1842,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1718,7 +1850,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1726,7 +1858,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1734,7 +1866,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1742,7 +1874,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1750,7 +1882,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1758,7 +1890,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1766,7 +1898,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1774,7 +1906,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1782,7 +1914,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1790,7 +1922,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1798,7 +1930,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1806,7 +1938,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1814,7 +1946,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1822,7 +1954,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1830,7 +1962,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1838,7 +1970,7 @@
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1846,7 +1978,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1854,7 +1986,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1862,7 +1994,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1870,7 +2002,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -1878,7 +2010,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +2018,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -1894,7 +2026,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1902,7 +2034,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1910,7 +2042,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1918,7 +2050,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1926,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -1934,7 +2066,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -1942,7 +2074,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -1950,7 +2082,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1958,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -1966,7 +2098,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -1974,7 +2106,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -1982,7 +2114,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -1990,7 +2122,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -1998,7 +2130,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2006,7 +2138,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2014,7 +2146,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2022,7 +2154,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -2042,22 +2174,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2083,7 +2215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2106,7 +2238,7 @@
         <v>13774010.720000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2123,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2140,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2157,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2174,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2191,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -2205,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -2219,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2233,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2247,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2261,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -2278,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -2295,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -2312,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -2329,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2352,7 +2484,7 @@
         <v>1630189.054</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -2375,7 +2507,7 @@
         <v>7946938.7560000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2389,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -2403,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -2426,7 +2558,7 @@
         <v>8150945.2719999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -2443,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -2460,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -2474,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -2488,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -2502,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -2519,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -2536,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -2553,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2567,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -2581,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -2595,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -2612,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -2629,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -2646,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -2663,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -2677,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -2691,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2705,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -2719,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -2736,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -2753,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2770,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -2784,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2798,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -2812,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -2826,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -2843,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2860,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -2877,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -2894,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -2908,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -2925,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -2942,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2956,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2973,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -2990,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -3004,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -3021,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -3038,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -3055,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -3072,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -3086,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3100,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -3114,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3128,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -3142,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -3156,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -3170,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -3187,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -3204,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -3218,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -3241,7 +3373,7 @@
         <v>1630189.054</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>142</v>
       </c>
@@ -3264,7 +3396,7 @@
         <v>15216753.91</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -3281,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -3295,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -3309,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -3323,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>147</v>
       </c>
@@ -3340,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -3357,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>147</v>
       </c>
@@ -3374,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -3391,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -3408,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -3425,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -3442,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -3456,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -3470,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -3493,7 +3625,7 @@
         <v>1630189.054</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -3516,7 +3648,7 @@
         <v>15216753.91</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -3533,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -3550,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -3567,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -3584,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -3598,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -3615,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -3632,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -3649,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -3666,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -3683,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -3697,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -3711,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3725,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -3739,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -3753,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>28</v>
       </c>
@@ -3767,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -3784,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -3801,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -3818,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -3832,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>29</v>
       </c>
@@ -3846,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -3860,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -3874,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -3888,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>173</v>
       </c>
@@ -3905,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>174</v>
       </c>
@@ -3922,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -3936,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -3950,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3964,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -3991,9 +4123,9 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4001,7 +4133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4009,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4030,12 +4162,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4043,7 +4175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -4051,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4059,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4067,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4083,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4091,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -4112,9 +4244,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4122,7 +4254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4130,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -4138,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
